--- a/DP&SD.xlsx
+++ b/DP&SD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learnings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\InterviewQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4637F11-C8A1-4A7F-BE30-C8F1CD84714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6442CB-AB06-4F17-937D-A77F5C5B3F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE2D46C6-D23B-4B9B-A12E-BA6D5BB55512}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Ultimate LLD and HLD Roadmap | System Design RoadMap | LLD &amp;amp; HLD Topics to be covered for Interview</t>
   </si>
@@ -132,9 +133,6 @@
     <t>27. All Creational Design Patterns | Prototype, Singleton, Factory, AbstractFactory, Builder Pattern</t>
   </si>
   <si>
-    <t>28. BUG in Double-Checked Locking of Singleton Pattern &amp;amp; its Fix | Low Level System Design Question</t>
-  </si>
-  <si>
     <t>29. LLD of Inventory Management System | Low Level System Design of Inventory Management System</t>
   </si>
   <si>
@@ -205,6 +203,12 @@
   </si>
   <si>
     <t>https://github.com/AjayGhimire1998/Java---Basic-to-Advanced---Concept-Coding---Notes/</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>28. BUG in Double-Checked Locking of Singleton Pattern &amp; its Fix | Low Level System Design Question</t>
   </si>
 </sst>
 </file>
@@ -260,7 +264,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -570,292 +583,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09C6671-A946-4550-BB8A-0C34CF99A534}">
-  <dimension ref="A1:B48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="105.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B48" xr:uid="{F09C6671-A946-4550-BB8A-0C34CF99A534}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -868,38 +962,38 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
